--- a/Examples/AHP Dam/damModel_Excel_Results.xlsx
+++ b/Examples/AHP Dam/damModel_Excel_Results.xlsx
@@ -334,7 +334,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14859000" cy="6448425"/>
+    <ext cx="15049500" cy="6448425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
